--- a/biology/Botanique/Diosdado_Simón/Diosdado_Simón.xlsx
+++ b/biology/Botanique/Diosdado_Simón/Diosdado_Simón.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Diosdado_Sim%C3%B3n</t>
+          <t>Diosdado_Simón</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Diosdado Simón Villares (Torremenga, 15 octobre 1954-Cáceres, 28 avril 2002) est un biologiste, chercheur,  botaniste, arboriculteur et éducateur environnemental espagnol.
 Il étudie la biologie à l'Université complutense de Madrid et la végétation d'Estrémadure.  Il est directeur du département des parcs et jardins de la municipalité de Cáceres et membre de l'association ADENEX, cette association lui rend hommage en 2003 quand elle donne son nom à leur prix ADENEX- Diosdado Simón.
